--- a/src/main/resources/models/判断题模板.xlsx
+++ b/src/main/resources/models/判断题模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22536" windowHeight="11591"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="114">
   <si>
     <t>题干</t>
   </si>
@@ -42,7 +42,10 @@
     <t>备注信息1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>对公</t>
+  </si>
+  <si>
+    <t>简单</t>
   </si>
   <si>
     <t>题干2</t>
@@ -54,7 +57,7 @@
     <t>备注信息2</t>
   </si>
   <si>
-    <t>2</t>
+    <t>中等</t>
   </si>
   <si>
     <t>题干3</t>
@@ -63,7 +66,7 @@
     <t>备注信息3</t>
   </si>
   <si>
-    <t>3</t>
+    <t>困难</t>
   </si>
   <si>
     <t>题干4</t>
@@ -72,6 +75,9 @@
     <t>备注信息4</t>
   </si>
   <si>
+    <t>对私</t>
+  </si>
+  <si>
     <t>题干5</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
     <t>备注信息7</t>
   </si>
   <si>
+    <t>公共</t>
+  </si>
+  <si>
     <t>题干8</t>
   </si>
   <si>
@@ -106,6 +115,9 @@
   </si>
   <si>
     <t>备注信息10</t>
+  </si>
+  <si>
+    <t>国际</t>
   </si>
   <si>
     <t>题干11</t>
@@ -354,9 +366,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -373,73 +385,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -448,15 +393,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,32 +408,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,12 +431,103 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -532,6 +544,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -544,6 +568,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -556,19 +586,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,139 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,16 +738,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -745,22 +766,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,17 +789,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,21 +835,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -831,10 +843,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,133 +855,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,14 +1345,14 @@
   <sheetPr/>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:H$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2222222222222" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="12.225" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16371" width="12.2222222222222" style="1" customWidth="1"/>
-    <col min="16372" max="16376" width="12.2222222222222" style="1"/>
+    <col min="1" max="16371" width="12.225" style="1" customWidth="1"/>
+    <col min="16372" max="16376" width="12.225" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1374,843 +1386,852 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 E1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52:D1048576">
+      <formula1>"对公,对私,公共,国际"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52:E1048576">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2226,7 +2247,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2243,7 +2264,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/models/判断题模板.xlsx
+++ b/src/main/resources/models/判断题模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="22536" windowHeight="11591"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>对公</t>
   </si>
   <si>
-    <t>简单</t>
+    <t>高</t>
   </si>
   <si>
     <t>题干2</t>
@@ -57,7 +57,7 @@
     <t>备注信息2</t>
   </si>
   <si>
-    <t>中等</t>
+    <t>中</t>
   </si>
   <si>
     <t>题干3</t>
@@ -66,7 +66,7 @@
     <t>备注信息3</t>
   </si>
   <si>
-    <t>困难</t>
+    <t>低</t>
   </si>
   <si>
     <t>题干4</t>
@@ -365,8 +365,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -386,7 +386,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,7 +401,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,14 +422,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -454,53 +482,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,8 +506,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,73 +544,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,109 +718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,24 +740,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,6 +754,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,8 +791,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,32 +835,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -843,10 +843,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,133 +855,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1345,14 +1345,14 @@
   <sheetPr/>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.225" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="12.2222222222222" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16371" width="12.225" style="1" customWidth="1"/>
-    <col min="16372" max="16376" width="12.225" style="1"/>
+    <col min="1" max="16371" width="12.2222222222222" style="1" customWidth="1"/>
+    <col min="16372" max="16376" width="12.2222222222222" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -2223,13 +2223,16 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 E1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52:D1048576">
       <formula1>"对公,对私,公共,国际"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E52:E1048576">
       <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E51">
+      <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,7 +2250,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2264,7 +2267,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
